--- a/Content/DataTable/Client/client_building_info.xlsx
+++ b/Content/DataTable/Client/client_building_info.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sub\기획서 작업\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SProjectDesign\Client\SProject\Content\DataTable\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB03FE9E-8025-44B8-A2A1-8FAD10943E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D8DE67-C8D7-417F-BB0C-51DFCD69EC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{709255B8-6DBD-4394-B970-6F424FE6CA7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{709255B8-6DBD-4394-B970-6F424FE6CA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="const" sheetId="1" r:id="rId1"/>
-    <sheet name="Tower_Data" sheetId="3" r:id="rId2"/>
-    <sheet name="Nomal_Tower" sheetId="2" r:id="rId3"/>
+    <sheet name="Tower_Data!" sheetId="3" r:id="rId2"/>
+    <sheet name="Tower_data_desc" sheetId="4" r:id="rId3"/>
+    <sheet name="Normal_Tower!" sheetId="2" r:id="rId4"/>
+    <sheet name="Normal_Tower_desc" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,22 +52,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>const</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;건물명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>획득하는 자원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;건물 업그레이드에 필요한 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,6 +217,139 @@
   </si>
   <si>
     <t>;생산 키아이템04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_data_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청 1레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청 3레벨</t>
+  </si>
+  <si>
+    <t>시청 4레벨</t>
+  </si>
+  <si>
+    <t>시청 5레벨</t>
+  </si>
+  <si>
+    <t>시청 2레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산소 1레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산소 3레벨</t>
+  </si>
+  <si>
+    <t>생산소 4레벨</t>
+  </si>
+  <si>
+    <t>생산소 5레벨</t>
+  </si>
+  <si>
+    <t>생산소 2레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetResourceAmount01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetItemAmount01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetItemAmount02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeUseResourceAmount01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeUseItemAmount01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeUseItemAmount02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeUseItemAmount03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;INDEX 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetItemAmount03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;건물 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;획득하는 자원 KIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;획득하는 자원 양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;획득하는 아이템 양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;획득하는 아이템양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;건물 업그레이드에 필요한 리소스 양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;건물 업그레이드에 필요한 아이템 양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;index값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,12 +390,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +760,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -660,159 +771,354 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25ABCBA2-7E9C-466E-8D99-C425574801C3}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="19.75" customWidth="1"/>
-    <col min="12" max="12" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" customWidth="1"/>
+    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" customWidth="1"/>
+    <col min="18" max="19" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10001</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10001</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10001</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10001</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10001</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>20001</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>20001</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B10">
+        <v>20001</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B11">
+        <v>20001</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>30</v>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>20001</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -822,11 +1128,235 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53EF994-B20F-45DC-948D-424C8B5083E2}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C78B2AC-44F4-49A5-808F-230C9D703B72}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -849,101 +1379,181 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134F3C15-6BE3-4CA6-8705-2D1155A18FD7}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
